--- a/config_Release/login_benefits_server.xlsx
+++ b/config_Release/login_benefits_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="real_cfg" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>award_id</t>
   </si>
@@ -37,41 +37,131 @@
     <t>power|权重</t>
   </si>
   <si>
-    <t>空调被</t>
-  </si>
-  <si>
-    <t>98万鲸币</t>
-  </si>
-  <si>
     <t>jing_bi</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>18万鲸币</t>
-  </si>
-  <si>
-    <t>8万鲸币</t>
-  </si>
-  <si>
-    <t>7万鲸币</t>
-  </si>
-  <si>
-    <t>6万鲸币</t>
-  </si>
-  <si>
-    <t>48福卡</t>
-  </si>
-  <si>
-    <t>28福卡</t>
+    <t>500京东卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0000福利券</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80万金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0万金币</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,20 +173,30 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -480,14 +583,14 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>980000</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -497,14 +600,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>4800</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -514,31 +617,31 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>3000000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>180000</v>
+        <v>1800000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -548,51 +651,51 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>1200000</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>70000</v>
+        <v>1000000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>60000</v>
+        <v>800000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -709,6 +812,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -716,14 +820,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="3" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.25" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
@@ -749,8 +854,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -767,14 +872,14 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>980000</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>5</v>
@@ -787,14 +892,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4800</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -807,14 +912,14 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2800</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>3000000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -827,14 +932,14 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>180000</v>
+        <v>1800000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -849,14 +954,14 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>1200000</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>25</v>
@@ -871,14 +976,14 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>70000</v>
+        <v>1000000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>25</v>
@@ -893,14 +998,14 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>60000</v>
+        <v>800000</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
